--- a/train_dataset.xlsx
+++ b/train_dataset.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453E0989-0188-4A27-8A6B-17F5C0674812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE414690-114F-41CE-A3BE-701C75D5ECD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="1023">
   <si>
     <t>QUESTION</t>
   </si>
@@ -1971,12 +1971,1174 @@
   <si>
     <t>Система оплаты труда в компании связана с вкладом сотрудника и ценностью для компании, и изменения в ней позволяют сотрудникам более справедливо получать оплату за свои усилия.</t>
   </si>
+  <si>
+    <t>В каком году компания Smart Consulting начала свою деятельность?</t>
+  </si>
+  <si>
+    <t>Какой главный принцип работы в компании Smart Consulting?</t>
+  </si>
+  <si>
+    <t>Какие ключевые ценности компании Smart Consulting упоминаются в тексте?</t>
+  </si>
+  <si>
+    <t>Какие особенности компании Smart Consulting делают ее особой по сравнению с обычными компаниями?</t>
+  </si>
+  <si>
+    <t>Кто является основателем компании Smart Consulting?</t>
+  </si>
+  <si>
+    <t>Какой принцип самоуправления упоминается в тексте?</t>
+  </si>
+  <si>
+    <t>Какие правила игры в компании Smart Consulting подразумеваются?</t>
+  </si>
+  <si>
+    <t>В каком девизе основателя компании говорится о необходимости изменений?</t>
+  </si>
+  <si>
+    <t>Какая важная роль отводится сотрудникам в компании Smart Consulting?</t>
+  </si>
+  <si>
+    <t>Каков принцип использования текущих правил и законодательных встреч в компании?</t>
+  </si>
+  <si>
+    <t>Какая ответственность озвучивается как важная составляющая успеха для сотрудников компании Smart Consulting?</t>
+  </si>
+  <si>
+    <t>Чем компания Smart Consulting отличается от обычных компаний?</t>
+  </si>
+  <si>
+    <t>Какие качества упоминаются как важные для сотрудников компании Smart Consulting?</t>
+  </si>
+  <si>
+    <t>В чем заключается особенность стратегии компании Smart Consulting?</t>
+  </si>
+  <si>
+    <t>Какие продукты и инициативы рассматриваются как основу деятельности компании?</t>
+  </si>
+  <si>
+    <t>Какие функции выполняет компания Smart Consulting помимо автоматизации госсектора?</t>
+  </si>
+  <si>
+    <t>Какая модель владения компанией описывается в тексте?</t>
+  </si>
+  <si>
+    <t>Какие правила и принципы регулируют работу компании Smart Consulting?</t>
+  </si>
+  <si>
+    <t>Какие свободы и независимость подчеркиваются как ценности компании Smart Consulting?</t>
+  </si>
+  <si>
+    <t>Где можно получить информацию по основным процессам в компании Smart Consulting?</t>
+  </si>
+  <si>
+    <t>В компании Smart Consulting начались изменения в 2005 году.</t>
+  </si>
+  <si>
+    <t>Главным принципом работы в компании Smart Consulting является самоуправление.</t>
+  </si>
+  <si>
+    <t>В тексте упоминаются ценности: экспертиза, клиентоориентированность и эффективность команды.</t>
+  </si>
+  <si>
+    <t>Особенностью компании Smart Consulting является отсутствие иерархии должностей, ценность свободы и самореализации сотрудников, а также возможность менять правила и политики компании.</t>
+  </si>
+  <si>
+    <t>Основателем компании Smart Consulting не указано.</t>
+  </si>
+  <si>
+    <t>Принцип самоуправления подразумевает, что каждый сотрудник сам управляет компанией и может менять правила игры.</t>
+  </si>
+  <si>
+    <t>Правила игры в компании Smart Consulting можно менять, чтобы соответствовать идеям и творчеству.</t>
+  </si>
+  <si>
+    <t>В девизе основателя компании говорится: "Меняйся или умри".</t>
+  </si>
+  <si>
+    <t>В тексте говорится, что ответственность важная для успеха компании Smart Consulting.</t>
+  </si>
+  <si>
+    <t>Сотрудники могут использовать текущие правила и законодательные встречи компании для реализации своих идей.</t>
+  </si>
+  <si>
+    <t>Ответственность сотрудников подчеркивается как важная составляющая успеха для компании Smart Consulting.</t>
+  </si>
+  <si>
+    <t>Компания Smart Consulting отличается тем, что нет иерархии должностей, ценится свобода и самореализация, а также возможность изменять правила игры.</t>
+  </si>
+  <si>
+    <t>Какие качества являются важными для сотрудников компании Smart Consulting не указано в тексте.</t>
+  </si>
+  <si>
+    <t>Особенность стратегии компании Smart Consulting заключается в том, что она стремится менять мир и создавать новаторские продукты и инициативы.</t>
+  </si>
+  <si>
+    <t>Компания Smart Consulting трансформирует бизнесы, мышление людей и разрабатывает инновационный софт.</t>
+  </si>
+  <si>
+    <t>Компания Smart Consulting начинала как региональная компания по созданию софта для государственного управления.</t>
+  </si>
+  <si>
+    <t>Компания Smart Consulting принадлежит сама себе, команды определяют бюджеты, нанимают сотрудников и решают, куда инвестировать.</t>
+  </si>
+  <si>
+    <t>Регулирование работы компании Smart Consulting осуществляется с помощью текущих правил и законодательных встреч "Смартов".</t>
+  </si>
+  <si>
+    <t>Как ценности компании Smart Consulting подчеркиваются свобода в принятии решений и независимость от чужого мнения.</t>
+  </si>
+  <si>
+    <t>Информация по основным процессам доступна в системе Digit Культура и предоставляется на Welcome-брифинге.</t>
+  </si>
+  <si>
+    <t>Какие варианты для размещения рабочего места предлагаются новым сотрудникам "Смартов"?</t>
+  </si>
+  <si>
+    <t>Какие города России упоминаются как места, где "Смарты" работали?</t>
+  </si>
+  <si>
+    <t>Почему сотрудники "Смартов" любят работать в офисе?</t>
+  </si>
+  <si>
+    <t>Какие варианты для работы в офисе представлены?</t>
+  </si>
+  <si>
+    <t>Что по умолчанию настроено в ноутбуке нового сотрудника?</t>
+  </si>
+  <si>
+    <t>Какие корпоративные ресурсы и программы доступны новым сотрудникам?</t>
+  </si>
+  <si>
+    <t>Какой мессенджер рекомендуется установить новому сотруднику?</t>
+  </si>
+  <si>
+    <t>Что делать, если рабочее место не соответствует ожиданиям нового сотрудника?</t>
+  </si>
+  <si>
+    <t>Новым сотрудникам "Смартов" предлагаются три варианта для размещения рабочего места: офис, коворкинг или любая географическая зона на территории России с интернетом и розеткой.</t>
+  </si>
+  <si>
+    <t>Города России, где работали "Смарты", не перечисляются в тексте.</t>
+  </si>
+  <si>
+    <t>Сотрудники "Смартов" любят работать в офисе, потому что здесь есть все необходимое для творчества и эффективной работы, и при необходимости они могут менять пространство.</t>
+  </si>
+  <si>
+    <t>Варианты для работы в офисе включают в себя возможность выбора между постоянным пребыванием в офисе или приходом время от времени и сменой локации.</t>
+  </si>
+  <si>
+    <t>Ноутбук нового сотрудника настраивается по умолчанию на доступ к почте, Digit, Jira, Confluence, Университету и офисным программам.</t>
+  </si>
+  <si>
+    <t>Новым сотрудникам доступны по умолчанию почта, Digit, Jira, Confluence, Университет и офисные программы.</t>
+  </si>
+  <si>
+    <t>Рекомендуется установить мессенджер Telegram, так как компания активно использует этот мессенджер, и DigitBot также доступен только здесь.</t>
+  </si>
+  <si>
+    <t>Для доступа к другим корпоративным ресурсам и программам новым сотрудникам необходимо сделать заявку в круг "Сопровождение полетов" (СА) в DigitBot.</t>
+  </si>
+  <si>
+    <t>Если рабочее место не соответствует ожиданиям нового сотрудника, его призывают сообщить об этом, используя различные способы коммуникации, включая слова, теншен, бота и даже игру в "Крокодила".</t>
+  </si>
+  <si>
+    <t>Что нужно делать после включения ноутбука, если не знаешь, чем заняться?</t>
+  </si>
+  <si>
+    <t>Какие ресурсы и темы указаны в плане адаптации для новых сотрудников?</t>
+  </si>
+  <si>
+    <t>Какие шаги следует предпринять, чтобы ознакомиться с компанией после получения ноутбука?</t>
+  </si>
+  <si>
+    <t>Какие советы даны относительно общения с наставником или лид-линком?</t>
+  </si>
+  <si>
+    <t>Какие пункты важны при вхождении в компанию и взаимодействии с коллегами?</t>
+  </si>
+  <si>
+    <t>Где можно найти список текущих проектов в компании?</t>
+  </si>
+  <si>
+    <t>Что нужно делать, чтобы понять, что происходит в компании?</t>
+  </si>
+  <si>
+    <t>Какие рекомендации даны относительно изучения новой языковой среды и терминов?</t>
+  </si>
+  <si>
+    <t>Как можно быстро погрузиться в новую языковую среду?</t>
+  </si>
+  <si>
+    <t>Где описаны все термины Смартократии?</t>
+  </si>
+  <si>
+    <t>Какие советы даны для изучения айтишных терминов?</t>
+  </si>
+  <si>
+    <t>Почему изучение языка госчиновников сложно?</t>
+  </si>
+  <si>
+    <t>Какими методами можно попытаться изучить язык госчиновников?</t>
+  </si>
+  <si>
+    <t>Какие предложения даны относительно создания "Большого толкового словаря смартконсалтинговых терминов"?</t>
+  </si>
+  <si>
+    <t>После включения ноутбука и непонимания, чем заняться, следует выполнить ряд действий, включая ознакомление с планом адаптации, проверку почты, изучение ресурсов для новичков, чтение рабочего чата и участие в тактических встречах.</t>
+  </si>
+  <si>
+    <t>В плане адаптации для новых сотрудников указаны ресурсы и темы, которые стоит изучить в первые дни.</t>
+  </si>
+  <si>
+    <t>Для ознакомления с компанией после получения ноутбука следует проверить почту, где ожидается ссылка на welcome-курс, изучить ресурсы для новичков в Confluence и прочитать рабочий чат круга.</t>
+  </si>
+  <si>
+    <t>Для взаимодействия с наставником или лид-линком рекомендуется держать их в курсе своих планов и действий, а также сообщать о проделанной работе.</t>
+  </si>
+  <si>
+    <t>При вхождении в компанию важно общаться с коллегами, делиться информацией о себе и оставаться открытым к обучению.</t>
+  </si>
+  <si>
+    <t>Список текущих проектов в компании можно найти, обратившись к любому коллеге, например, через офис, Zoom или чат.</t>
+  </si>
+  <si>
+    <t>Чтобы понять, что происходит в компании, следует обратиться к любому коллеге и начать общение.</t>
+  </si>
+  <si>
+    <t>Рекомендации по изучению новой языковой среды и терминов включают в себя активное обучение, использование ресурсов и общение с коллегами.</t>
+  </si>
+  <si>
+    <t>Для быстрого погружения в новую языковую среду следует быть открытым, гуглить, спрашивать и использовать корпоративные ресурсы.</t>
+  </si>
+  <si>
+    <t>Все термины Смартократии описаны в Кодексе.</t>
+  </si>
+  <si>
+    <t>Советы по изучению айтишных терминов включают в себя гугление или яндексинг в интернете.</t>
+  </si>
+  <si>
+    <t>Изучение языка госчиновников сложно из-за сложности аббревиатур и формулировок, а также из-за их частой неясности.</t>
+  </si>
+  <si>
+    <t>Для изучения языка госчиновников следует спрашивать у коллег, гуглить и использовать корпоративные ресурсы.</t>
+  </si>
+  <si>
+    <t>Мы ждем составителя "Большого толкового словаря смартконсалтинговых терминов" и призываем сотрудников внести свой вклад в его создание.</t>
+  </si>
+  <si>
+    <t>Какие примеры ролей приводятся в тексте?</t>
+  </si>
+  <si>
+    <t>В чем заключается особенность ролей в "Смартах" по сравнению с обычными должностями?</t>
+  </si>
+  <si>
+    <t>Чем отличается понятие "должность" от "роли" в контексте компании?</t>
+  </si>
+  <si>
+    <t>Какие функции выполняет должностная инструкция?</t>
+  </si>
+  <si>
+    <t>Что определяет роль сотрудника в компании?</t>
+  </si>
+  <si>
+    <t>Какие обязательства предполагаются при игре в роль?</t>
+  </si>
+  <si>
+    <t>Каким образом именуются роли в компании, и почему такой подход выбран?</t>
+  </si>
+  <si>
+    <t>Каким образом роли позволяют сотрудникам интегрировать рабочую и личную жизнь?</t>
+  </si>
+  <si>
+    <t>Какую роль играет "Фея" в офисе компании?</t>
+  </si>
+  <si>
+    <t>Какие роли являются функциональными для культуры компании?</t>
+  </si>
+  <si>
+    <t>Какие особенности характеризуют роль "Лид-линк"?</t>
+  </si>
+  <si>
+    <t>Какую роль выполняют "Фасилитаторы"?</t>
+  </si>
+  <si>
+    <t>Какая роль отводится "Секретарю" в компании?</t>
+  </si>
+  <si>
+    <t>Основное отличие ролей в "Смартах" от обычных должностей заключается в том, что роль - это игра, в которую сотрудник соглашается или сам выбирает, в то время как должность определяется функциональными требованиями.</t>
+  </si>
+  <si>
+    <t>Должность определена как набор функциональных требований, которые сотрудник обязан выполнять, в то время как роль - это зона ответственности, которую сотрудник обещает закрывать всеми доступными методами.</t>
+  </si>
+  <si>
+    <t>Должностная инструкция регламентирует функциональные требования, которые сотрудник обязан выполнять на своей должности.</t>
+  </si>
+  <si>
+    <t>Роль сотрудника в компании определяется предназначением роли и обязательствами, которые ожидаются от роли со стороны компании, коллег и клиентов.</t>
+  </si>
+  <si>
+    <t>Роль подразумевает обязательства, а не обязанности, и сотрудник обязуется выполнять их, руководствуясь здравым смыслом, правилами и принципами.</t>
+  </si>
+  <si>
+    <t>Роли именуются так, чтобы максимально передать смысл их предназначения, делая их название более описательным.</t>
+  </si>
+  <si>
+    <t>Роли позволяют сотрудникам интегрировать рабочую и личную жизнь, так как они играют в разные роли на протяжении всей жизни.</t>
+  </si>
+  <si>
+    <t>Примеры ролей включают "Фею", "Лид-линк", "Фасилитатора" и "Секретаря".</t>
+  </si>
+  <si>
+    <t>"Фея" в офисе компании создает уют и атмосферу, несмотря на отсутствие этой роли в должностной инструкции.</t>
+  </si>
+  <si>
+    <t>Функциональными для культуры компании ролями являются "Лид-линк", "Фасилитатор" и "Секретарь".</t>
+  </si>
+  <si>
+    <t>Роль "Лид-линк" создает и развивает команду для выполнения предназначения круга, может назначать или снимать сотрудников с ролей и несет ответственность за работу круга.</t>
+  </si>
+  <si>
+    <t>"Фасилитаторы" помогают рассматривать вопросы и теншены на встречах, участвуя в организации и проведении.</t>
+  </si>
+  <si>
+    <t>Роль "Секретаря" в компании заключается в сохранении знаний, договоренностей и организации встреч.</t>
+  </si>
+  <si>
+    <t>Кто такой Лид-линк</t>
+  </si>
+  <si>
+    <t>«Лид-линк» — это специальная смартократическая роль. Он создает и развивает команду для выполнения предназначения круга!</t>
+  </si>
+  <si>
+    <t>Какие особенности роли Лид-линк</t>
+  </si>
+  <si>
+    <t>Несколько особенностей роли «Лид-линк»:
+1)помогает кругу максимально эффективно реализовывать предназначение! Например, «Заботиться о клиенте и быть с ним с первого рукопожатия»;
+2)имеет право снимать сотрудников с роли и назначать на роль (конечно, с их согласия), если этого требует предназначение круга;
+3)несет ответственность за работу круга. Если в команде не хватает нужного для роли человека, то ее функцию исполняет лид-линк.</t>
+  </si>
+  <si>
+    <t>Стать лид-линком можно несколькими способами:
+1)Тебя на эту роль выберет лид-линк вышестоящего круга;
+2) Тебя выберет команда, и ты согласишься;
+3)Ты сам захочешь быть лид-линком и сможешь объяснить команде свою ценность.</t>
+  </si>
+  <si>
+    <t>«Фасилитатор» — это не только эротичное слово, но и роль, без которой ты не сможешь жить. Так называемые волшебники встреч помогают рассматривать десятки вопросов и теншенов за несколько минут. Сходи на любую тактическую или законодательную встречу_ —_ и сам оцени таинство фасилитации.</t>
+  </si>
+  <si>
+    <t>Кто такой Фасилитатор</t>
+  </si>
+  <si>
+    <t>Кто такой Секретарь</t>
+  </si>
+  <si>
+    <t>«Секретарь» — еще одна роль из волшебников, без которой в «Смартах» не проходит ни одна встреча. Именно секретари сохраняют знания, полученные во время встреч, напоминают о договоренностях и собирают всех в удобном пространстве.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Это что, у меня не будет должности?!
+</t>
+  </si>
+  <si>
+    <t>Будет. Как бы мы ни хотели жить в мире Смартократии, мы находимся в России. Для контрольных органов нам нужна должностная структура. А внутри компании мы живем ролями и их предназначениями.</t>
+  </si>
+  <si>
+    <t>В чем различие между ролью "Руководитель" и ролью "Лид-линк" в контексте задач и обязанностей?</t>
+  </si>
+  <si>
+    <t>Как ставятся задачи руководителем и лид-линком?</t>
+  </si>
+  <si>
+    <t>Какие вопросы задает руководитель и лид-линк в сложных ситуациях?</t>
+  </si>
+  <si>
+    <t>Какие функции выполняют руководитель и лид-линк в процессе решения задач?</t>
+  </si>
+  <si>
+    <t>Как можно стать руководителем или лид-линком?</t>
+  </si>
+  <si>
+    <t>Кто принимает решение в компании, и как это решение принимается?</t>
+  </si>
+  <si>
+    <t>Какие советы по принятию верных решений предоставлены в тексте?</t>
+  </si>
+  <si>
+    <t>Какие принципы важно помнить при принятии решений в компании?</t>
+  </si>
+  <si>
+    <t>Руководитель определяет и распределяет задачи самостоятельно, в то время как лид-линк получает задачи вместе с командой и интересуется, как можно помочь в их выполнении.</t>
+  </si>
+  <si>
+    <t>Руководитель даёт конкретные инструкции о том, что и как делать, в то время как лид-линк объясняет важность задачи и почему она должна быть выполнена.</t>
+  </si>
+  <si>
+    <t>Руководитель принимает решения или выносит наказания, в то время как лид-линк задает вопросы, помогающие принять собственное решение и осознать ошибку.</t>
+  </si>
+  <si>
+    <t>Руководитель мотивирует, контролирует, планирует и ставит задачи, в то время как лид-линк создает условия для того, чтобы команда могла самостоятельно решать задачи.</t>
+  </si>
+  <si>
+    <t>Обычно сотрудники несут ответственность за неуспех в роли руководителя, а в роли лид-линка ответственность несет команда.</t>
+  </si>
+  <si>
+    <t>В роли руководителя ответственность за успех обычно лежит на руководителе, а в роли лид-линка - на команде.</t>
+  </si>
+  <si>
+    <t>Руководителем становятся либо по назначению вышестоящего руководителя, либо по согласию команды, либо по собственному желанию, если они вызывают доверие у команды. Лид-линком можно стать, будучи активным, ответственным, веря в себя и предназначение компании.</t>
+  </si>
+  <si>
+    <t>Решения в компании принимаются каждым сотрудником, руководствуясь здравым смыслом, интересами компании, зоной ответственности своей роли, правилами и ценностями.</t>
+  </si>
+  <si>
+    <t>Советы по принятию верных решений включают в себя задать себе вопрос "Чтобы что?", помнить, что с решением несется ответственность за его последствия, решать, советоваться или нет - на усмотрение сотрудника, и готовность к получению помощи и информации от других сотрудников.</t>
+  </si>
+  <si>
+    <t>Важно помнить, что каждый сотрудник несет ответственность за решения, руководствуясь интересами компании и ценностями, и что решение должно иметь четкую цель.</t>
+  </si>
+  <si>
+    <t>Что означает заявление, что "тебе будут ставить задачи"?</t>
+  </si>
+  <si>
+    <t>Какова роль обратной связи в концепции самоуправления?</t>
+  </si>
+  <si>
+    <t>Какие мифы связаны с самоуправлением, согласно тексту?</t>
+  </si>
+  <si>
+    <t>Какие роли и круги отвечают за домены в организации?</t>
+  </si>
+  <si>
+    <t>Какие глобальные тренды и направления развития компании определяются?</t>
+  </si>
+  <si>
+    <t>Какие основные инструменты разрешения нестандартных ситуаций упоминаются?</t>
+  </si>
+  <si>
+    <t>В чем заключается ответственность сотрудника, принимающего решения?</t>
+  </si>
+  <si>
+    <t>Какие правила и принципы рекомендуются учитывать при разборе прямых указаний?</t>
+  </si>
+  <si>
+    <t>Что такое домены в контексте организации?</t>
+  </si>
+  <si>
+    <t>Какие домены приводятся в примере?</t>
+  </si>
+  <si>
+    <t>Какие действия могут быть предприняты, если сотрудник хочет предложить улучшения в домене, за который не несет ответственности?</t>
+  </si>
+  <si>
+    <t>Что такое Якорный круг и какова его роль?</t>
+  </si>
+  <si>
+    <t>Каким образом сотрудник может принимать решения в интересах компании?</t>
+  </si>
+  <si>
+    <t>Какие примеры из жизни компании упоминаются в тексте?</t>
+  </si>
+  <si>
+    <t>Какие последствия могут возникнуть, если сотрудник принимает решение без консультации?</t>
+  </si>
+  <si>
+    <t>Какие механики могут использоваться для проверки идей, решений и гипотез?</t>
+  </si>
+  <si>
+    <t>Как описывается ответственность сотрудника Smart Consulting?</t>
+  </si>
+  <si>
+    <t>Кто имеет право определять учетную политику и систему бюджетирования в компании?</t>
+  </si>
+  <si>
+    <t>Какие процессы в зоне ответственности домена могут быть улучшены с согласия коллег?</t>
+  </si>
+  <si>
+    <t>Какова роль Дмитрия Гокова в анализе стратегических решений?</t>
+  </si>
+  <si>
+    <t>Заявление означает, что сотруднику будут выдавать задачи для выполнения, и он может быть спрошен о неисполнении этих задач.</t>
+  </si>
+  <si>
+    <t>Обратная связь играет ключевую роль в концепции самоуправления, позволяя сотрудникам контролировать выполнение задач и обмениваться информацией.</t>
+  </si>
+  <si>
+    <t>Мифы связанны с тем, что в самоуправляющихся компаниях не ставят задачи и не проверяют их выполнение, а также с представлениями о всеобщем консенсусе.</t>
+  </si>
+  <si>
+    <t>Домены - это единоличные зоны ответственности, за которые отвечают соответствующие роли и круги.</t>
+  </si>
+  <si>
+    <t>Глобальные тренды и направления развития компании определяются на стратегических сессиях.</t>
+  </si>
+  <si>
+    <t>Нестандартные ситуации и инциденты разрешаются лид-линками или другими ответственными ролями с помощью прямых поручений.</t>
+  </si>
+  <si>
+    <t>Сотрудник, принимающий решение, несет ответственность за его последствия.</t>
+  </si>
+  <si>
+    <t>При разборе прямых указаний рекомендуется обращаться к правилам и принципам компании, ролям и обязательствам.</t>
+  </si>
+  <si>
+    <t>В контексте организации, домены представляют собой зоны ответственности, связанные с определенными аспектами работы.</t>
+  </si>
+  <si>
+    <t>Приводятся примеры доменов, такие как "Финансы" и "Управленческий учет".</t>
+  </si>
+  <si>
+    <t>Если сотрудник хочет предложить улучшения в домене, за который он не несет ответственности, он должен посоветоваться с коллегами из этого домена и получить одобрение.</t>
+  </si>
+  <si>
+    <t>Якорный круг - это специальный круг, который занимается законодательством и утверждением решений в организации.</t>
+  </si>
+  <si>
+    <t>Сотрудник может принимать решения в интересах компании, следуя правилам и принципам компании и согласуя действия с ролями и кругами.</t>
+  </si>
+  <si>
+    <t>В тексте упоминаются примеры из жизни компании, когда сотрудник принимал единоличное решение и достигал успеха, а также случаи, когда это приводило к провалу.</t>
+  </si>
+  <si>
+    <t>Если сотрудник принимает решение без консультации и это решение не соответствует интересам компании, могут возникнуть негативные последствия.</t>
+  </si>
+  <si>
+    <t>Механики для проверки идей, решений и гипотез включают обратную связь, обсуждение с командой и другие механизмы.</t>
+  </si>
+  <si>
+    <t>Ответственность сотрудника Smart Consulting означает, что он несет ответственность за принимаемые им решения и их последствия.</t>
+  </si>
+  <si>
+    <t>Учетную политику и систему бюджетирования в компании определяет круг "Финансы".</t>
+  </si>
+  <si>
+    <t>Процессы в зоне ответственности домена могут быть улучшены с согласия коллег и после получения одобрения.</t>
+  </si>
+  <si>
+    <t>Дмитрий Гоков анализирует стратегические решения всех сотрудников компании, и его предложения также могут быть подвергнуты анализу и обсуждени</t>
+  </si>
+  <si>
+    <t>Какая цитата Джоан Коллинз упоминается в тексте, и как она связана с ошибками?</t>
+  </si>
+  <si>
+    <t>Какие основные идеи связаны с правом на ошибку, согласно тексту?</t>
+  </si>
+  <si>
+    <t>Какие принципы помогают уменьшить количество ошибок в работе?</t>
+  </si>
+  <si>
+    <t>В чем заключается худшая ошибка, согласно цитате Элберта Хаббарда?</t>
+  </si>
+  <si>
+    <t>Какие семь "смертных грехов" упоминаются в тексте, связанные с ошибками?</t>
+  </si>
+  <si>
+    <t>Какие действия рекомендуются в случае, если произошла ошибка?</t>
+  </si>
+  <si>
+    <t>Какие меры принимаются для разбора серьезных инцидентов и учебы на ошибках в компании?</t>
+  </si>
+  <si>
+    <t>В тексте упоминается цитата Джоан Коллинз: "Покажите мне человека, который не ошибся ни разу в __ __ жизни, и я покажу вам человека, который ничего не достиг." Она связана с идеей, что ошибки являются частью жизни и опыта.</t>
+  </si>
+  <si>
+    <t>Основные идеи, связанные с правом на ошибку, включают в себя понимание ошибок как возможности для обучения и улучшения, а также как способ изменить действия и представления.</t>
+  </si>
+  <si>
+    <t>Принципы, помогающие уменьшить количество ошибок, включают ответственное отношение к выполнению обязательств, обучение и консультирование у опытных коллег, чтение инструкций, использование Базы знаний и другие.</t>
+  </si>
+  <si>
+    <t>Худшая ошибка, согласно цитате Элберта Хаббарда, - это постоянный страх совершить ошибку.</t>
+  </si>
+  <si>
+    <t>Семь "смертных грехов", связанных с ошибками, включают в себя: опустить руки, пороть горячку, спрятаться в норе, пройти мимо, отрицать, "Да я сто раз так делал", и повторить ошибку, которую осознал.</t>
+  </si>
+  <si>
+    <t>В случае, если произошла ошибка, рекомендуется сообщить о ней наставнику или лид-линку, принять активное участие в ее устранении, поделиться опытом с коллегами, зафиксировать информацию об ошибке и способе исправления в Базе знаний, а также считать ошибку возможностью для совершенствования.</t>
+  </si>
+  <si>
+    <t>Для разбора серьезных инцидентов и учебы на ошибках в компании работает АВАРИЙНЫЙ КОМИТЕТ, который проводит встречи для анализа опыта и уроков, извлеченных из ошибок.</t>
+  </si>
+  <si>
+    <t>Кто определяет, над какими задачами работать в компании Smart Consulting, согласно тексту?</t>
+  </si>
+  <si>
+    <t>Какие идеи могут быть реализованы в компании, и что важно помнить при внедрении новых идей?</t>
+  </si>
+  <si>
+    <t>Какие полномочия у сотрудников компании в отношении создания проектов и участия в принятии решений?</t>
+  </si>
+  <si>
+    <t>Какой софт используется в компании для внутренней коммуникации и управления процессами?</t>
+  </si>
+  <si>
+    <t>Какой раздел в системе "Digit Культура" предназначен для участия в корпоративной жизни компании?</t>
+  </si>
+  <si>
+    <t>Какие основные функции предоставляет раздел "Календарь" в системе "Digit Культура"?</t>
+  </si>
+  <si>
+    <t>Что можно найти в разделе "Компания" системы "Digit Культура"?</t>
+  </si>
+  <si>
+    <t>Как сотрудники могут вносить идеи в "Банк идей" компании?</t>
+  </si>
+  <si>
+    <t>Каким образом сотрудники могут предоставлять обратную связь команде "Культура" через бота?</t>
+  </si>
+  <si>
+    <t>Определение задач, над которыми работать, происходит совместно с участием всех сотрудников компании. Сотрудники могут высказывать свои идеи, но не каждая идея может быть реализована.</t>
+  </si>
+  <si>
+    <t>Идеи могут быть реализованы, если они соответствуют правилам и ценностям компании. Важно помнить, что при внедрении новых идей могут возникать ошибки, которые также служат опытом.</t>
+  </si>
+  <si>
+    <t>Сотрудники имеют полномочия для участия в принятии решений и создания проектов. Компания не имеет закрытых сообществ, и все встречи открыты.</t>
+  </si>
+  <si>
+    <t>Внутренней системой для коммуникации и управления процессами в компании Smart Consulting является "Digit Культура".</t>
+  </si>
+  <si>
+    <t>Раздел "Календарь" системы "Digit Культура" предназначен для просмотра всех мероприятий компании, включая события в различных кругах.</t>
+  </si>
+  <si>
+    <t>В разделе "Календарь" можно просматривать встречи, участвовать в них, создавать новые мероприятия, назначать секретарей и просматривать повестки дня.</t>
+  </si>
+  <si>
+    <t>В разделе "Компания" системы "Digit Культура" можно найти информацию о структуре компании, ролях сотрудников, а также ленту новостей и обновлений.</t>
+  </si>
+  <si>
+    <t>"Банк идей" компании предназначен для сбора идей от сотрудников. Однако в компании не принято молча записывать идеи, а предпочтительнее делиться ими на тактических встречах и действовать в команде для их воплощения.</t>
+  </si>
+  <si>
+    <t>Сотрудники могут предоставлять обратную связь команде "Культура" через бота, внося предложения и замечания для улучшения системы и процессов компании.</t>
+  </si>
+  <si>
+    <t>Какое пространство для работы и жизни в компании Smart Consulting предоставляется сотрудникам?</t>
+  </si>
+  <si>
+    <t>Какие вкладки доступны в Личном кабинете сотрудника, и какие из них зависят от его роли в компании?</t>
+  </si>
+  <si>
+    <t>Какие возможности предоставляет профиль сотрудника в Личном кабинете?</t>
+  </si>
+  <si>
+    <t>Для чего используется раздел "Документы" в Личном кабинете сотрудника?</t>
+  </si>
+  <si>
+    <t>Почему сотрудникам компании рекомендуется фиксировать свои усилия и рабочее время?</t>
+  </si>
+  <si>
+    <t>Какие преимущества предоставляет фиксация усилий сотрудникам и компании?</t>
+  </si>
+  <si>
+    <t>Какие стадии принятия необходимости фиксировать усилия описаны в тексте?</t>
+  </si>
+  <si>
+    <t>Сотрудникам компании Smart Consulting предоставляется Личный кабинет, который является пространством для работы и жизни в компании.</t>
+  </si>
+  <si>
+    <t>В Личном кабинете сотрудника доступны различные вкладки, в зависимости от его роли в компании. Например, для сотрудников Sales доступна вкладка "Продажи", а для тех, кто работает над проектами, доступны вкладки "ЕСМ", "Командировки", "Проекты" и другие.</t>
+  </si>
+  <si>
+    <t>Профиль сотрудника в Личном кабинете позволяет рассказать о себе, предоставить ссылки на социальные сети и найти сомышленников и коллег для совместных активностей.</t>
+  </si>
+  <si>
+    <t>Раздел "Документы" содержит шаблоны заявлений, такие как на отпуск, присоединение к зарплатному проекту, отпуск по беременности и родам, материальную помощь и другие.</t>
+  </si>
+  <si>
+    <t>Сотрудникам рекомендуется фиксировать свои усилия и рабочее время, чтобы улучшить эффективность работы и лучше управлять своим временем.</t>
+  </si>
+  <si>
+    <t>Фиксация усилий позволяет сотрудникам следить за своими достижениями, выявлять "слепые зоны" и "пожирателей времени", оценивать свой рост, увидеть, как часто выполняются обязательства, и менять свою жизнь в компании на основе объективных данных о проделанной работе.</t>
+  </si>
+  <si>
+    <t>Стадии принятия необходимости фиксировать усилия включают "Любопытство", "Сомнение", "Привычка", "Любовь" и "Осознанность". Эти стадии описывают путь сотрудника от изначального недоумения до осознания преимуществ и эффективности фиксации усилий.</t>
+  </si>
+  <si>
+    <t>Какие шаги рекомендуются для того, чтобы полюбить фиксацию усилий с первого взгляда?</t>
+  </si>
+  <si>
+    <t>Почему фиксация усилий полезна для сотрудников компании Smart Consulting?</t>
+  </si>
+  <si>
+    <t>Какие правила связаны с управлением рабочим временем в компании?</t>
+  </si>
+  <si>
+    <t>Какие правила относятся к ценности времени в компании?</t>
+  </si>
+  <si>
+    <t>Почему фиксация усилий не предназначена для контроля над сотрудниками?</t>
+  </si>
+  <si>
+    <t>Зачем фиксируются усилия сотрудников, и какая информация они предоставляют своим коллегам и проектам?</t>
+  </si>
+  <si>
+    <t>Правило о ценности времени включает в себя пункты о том, что время является невосполнимым ресурсом, который можно использовать максимально эффективно, и о том, что строится рабочий график на балансе интересов команды, клиентов и своих.</t>
+  </si>
+  <si>
+    <t>Фиксация усилий не предназначена для контроля над сотрудниками, а скорее для предоставления информации о проделанной работе. Проекты и продукты имеют бюджеты для реализации, и им важно видеть метрики эффективности своих идей.</t>
+  </si>
+  <si>
+    <t>Фиксация усилий предоставляет информацию о том, сколько времени было использовано для достижения определенных целей и задач. Эта информация полезна для проектов, чтобы оценить эффективность их реализации, и для сотрудников, чтобы оценить свой вклад в работу компании.</t>
+  </si>
+  <si>
+    <t>Для того чтобы полюбить фиксацию усилий с первого взгляда, рекомендуется:
+Прочитать политику своего круга про фиксацию усилий и задать вопросы наставнику или лид-линку.
+Спросить об основных проектах, с которыми будешь работать.
+Изучить предназначения и обязательства всех своих ролей.
+Посмотреть, как фиксируют усилия твои коллеги и лид-линк.
+Не стесняться задавать вопросы, если сомневаешься, на какую роль, обязательство или проект зафиксировать усилие.
+Не оставлять фиксацию усилий на потом, возвращаясь к этой задаче несколько раз в течение дня.</t>
+  </si>
+  <si>
+    <t>Фиксация усилий полезна для сотрудников компании Smart Consulting, так как позволяет:
+Следить за своими достижениями и оценивать свой рост.
+Выявлять "слепые зоны" и "пожирателей времени" в рабочем процессе.
+Увидеть, как часто выполняются обязательства своей роли и предложить изменения, если необходимо.
+Строить рабочую версию себя на основе объективных данных о проделанной работе.
+Взглянуть на свои роли, обязательства и проекты с позиции стратега и получать инсайты для улучшения своей жизни в компании.</t>
+  </si>
+  <si>
+    <t>Правила управления рабочим временем в компании включают следующие:
+Ценить время друг друга и не опаздывать на встречи.
+Строить рабочий график на балансе интересов команды, клиентов и своих.
+Отдавать работе не менее 40 часов времени еженедельно.
+Фиксировать усилия для достижения целей и задач.</t>
+  </si>
+  <si>
+    <t>Какой смысл несет фиксация усилий в рассказе о сотруднике?</t>
+  </si>
+  <si>
+    <t>Какой термин используется для описания основной роли этого сотрудника в компании?</t>
+  </si>
+  <si>
+    <t>Какой момент стал поворотным для сотрудника в контексте фиксации усилий?</t>
+  </si>
+  <si>
+    <t>Какие обязательства сотрудник добавил себе для фиксации усилий?</t>
+  </si>
+  <si>
+    <t>Какая была реакция команды на добавленные обязательства?</t>
+  </si>
+  <si>
+    <t>Какой вывод сделал сотрудник из реакции команды?</t>
+  </si>
+  <si>
+    <t>Какие затраты связаны с поездкой сотрудника на конференцию, согласно тексту?</t>
+  </si>
+  <si>
+    <t>Почему реальные расходы компании на поездку могут быть выше, чем простое суммирование стоимостей?</t>
+  </si>
+  <si>
+    <t>Какие другие затраты могут возникнуть, если сотрудник выступает на конференции?</t>
+  </si>
+  <si>
+    <t>Почему важно фиксировать усилия и затраты, согласно автору?</t>
+  </si>
+  <si>
+    <t>Какие выгоды и преимущества приводит автор в пользу фиксации усилий?</t>
+  </si>
+  <si>
+    <t>Какие меры предпринимаются в компании для обеспечения прозрачности учета и управления бюджетом?</t>
+  </si>
+  <si>
+    <t>Каким образом цифровые следы помогают управлять расходами компании?</t>
+  </si>
+  <si>
+    <t>Какие действия сотрудника призываются для увеличения эффективности компании с первого дня работы?</t>
+  </si>
+  <si>
+    <t>Фиксация усилий в этой истории помогла сотруднику осознать, как он тратит свое время и ресурсы на работу в компании.</t>
+  </si>
+  <si>
+    <t>Основной роль сотрудника в компании называется "Мастер стратегии".</t>
+  </si>
+  <si>
+    <t>Поворотным моментом для сотрудника стал момент, когда он начал фиксировать усилия для себя, а не для компании.</t>
+  </si>
+  <si>
+    <t>Сотрудник добавил обязательства "чтение технического задания" для фиксации усилий.</t>
+  </si>
+  <si>
+    <t>Команда на законодательной встрече заявила, что это обязательство не подходит для ролей сотрудника и не помогает его предназначению в компании.</t>
+  </si>
+  <si>
+    <t>Сотрудник понял, что часть времени он работает как "Аналитик" и решил добавить эту роль для фиксации усилий.</t>
+  </si>
+  <si>
+    <t>Расходы на поездку сотрудника на конференцию включают стоимость участия, билеты на самолет, гостиницу и такси.</t>
+  </si>
+  <si>
+    <t>Реальные расходы компании могут быть выше из-за дополнительных затрат, таких как командировочные, оформление командировки и другие.</t>
+  </si>
+  <si>
+    <t>Если сотрудник выступает на конференции, могут возникнуть затраты на помощь маркетологам, дизайнерам, мозговой штурм и целевую встречу для подготовки.</t>
+  </si>
+  <si>
+    <t>Фиксация усилий и затрат помогает обеспечить прозрачность учета и принимать взвешенные решения по бюджету компании.</t>
+  </si>
+  <si>
+    <t>Фиксация усилий и затрат позволяет управлять бюджетом более эффективно, принимать решения на основе данных и оптимизировать затраты.</t>
+  </si>
+  <si>
+    <t>Для обеспечения прозрачности учета и управления бюджетом в компании принято фиксировать усилия, выбирая круг, проект и обязательство.</t>
+  </si>
+  <si>
+    <t>Цифровые следы помогают управлять расходами, предоставляя информацию о затратах и позволяя принимать решения на основе данных.</t>
+  </si>
+  <si>
+    <t>Сотруднику призывается осознанно и точно фиксировать усилия, чтобы видеть жизнь через цифры бюджета и повышать эффективность компании с первого дня работы.</t>
+  </si>
+  <si>
+    <t>Какие две заповеди описаны в начале текста?</t>
+  </si>
+  <si>
+    <t>Что такое Смартократия в контексте компании?</t>
+  </si>
+  <si>
+    <t>Кто управляет компанией согласно тексту?</t>
+  </si>
+  <si>
+    <t>Где содержится информация для управления компанией?</t>
+  </si>
+  <si>
+    <t>Какие базовые принципы лежат в основе Смартократии?</t>
+  </si>
+  <si>
+    <t>Что подразумевается под "осознанностью и взрослой позицией участников" в тексте?</t>
+  </si>
+  <si>
+    <t>Как цифровые следы помогают в непрерывном развитии, согласно тексту?</t>
+  </si>
+  <si>
+    <t>Как информационная открытость влияет на управление расходами?</t>
+  </si>
+  <si>
+    <t>Какая часть информации остается недоступной из-за протестов сотрудников?</t>
+  </si>
+  <si>
+    <t>Какие вопросы задают на собеседованиях в компании, связанные с Смартократией?</t>
+  </si>
+  <si>
+    <t>Какова цель Смартократии, согласно автору текста?</t>
+  </si>
+  <si>
+    <t>Какие вопросы задаются в конце текста, чтобы определить, какие роли в компании подходят сотруднику?</t>
+  </si>
+  <si>
+    <t>Какие вопросы задаются в конце текста, чтобы определить, какие действия сотрудник может предпринять для блага мира?</t>
+  </si>
+  <si>
+    <t>Две заповеди в начале текста: "Меняй компанию или меняй компанию" и "Меняй людей или меняй людей".</t>
+  </si>
+  <si>
+    <t>Смартократия - это система управления компанией, включающая вопросы принятия решений, постановки целей и распределения задач.</t>
+  </si>
+  <si>
+    <t>Компанией управляет Кодекс, а не лид-линки, основатель или роль "Директор".</t>
+  </si>
+  <si>
+    <t>Вся информация для управления компанией содержится в Кодексе, а если ответа на вопрос нет, есть алгоритм, как его получить.</t>
+  </si>
+  <si>
+    <t>Базовые принципы Смартократии: осознанность и взрослая позиция участников, непрерывное развитие на основе цифровых следов, информационная открытость.</t>
+  </si>
+  <si>
+    <t>Осознанность и взрослая позиция участников означают, что каждый сотрудник самостоятельно выполняет работу, решает свои проблемы, контролирует свой день и развивается, не ожидая, что кто-то сделает это за него.</t>
+  </si>
+  <si>
+    <t>Цифровые следы помогают накапливать данные о том, как и что делается, и использовать их для улучшения работы и процессов в компании.</t>
+  </si>
+  <si>
+    <t>Информационная открытость включает в себя открытость протоколов встреч, тендеров, фиксированных усилий и другой информации, что позволяет управлять расходами.</t>
+  </si>
+  <si>
+    <t>Открытость зарплат - это единственная часть информации, к которой пока нет общего доступа из-за протестов сотрудников.</t>
+  </si>
+  <si>
+    <t>На собеседованиях в компании задают вопросы, связанные с тем, как компания может помочь сотруднику реализовать свое предназначение.</t>
+  </si>
+  <si>
+    <t>Цель Смартократии, согласно автору, - помочь каждому сотруднику реализовать свое предназначение и сделать мир лучше.</t>
+  </si>
+  <si>
+    <t>В конце текста задаются вопросы о том, что сотрудник бы хотел изменить в мире, что он планирует сделать для мира и в чем он уже хорошо умеет делать для мира.</t>
+  </si>
+  <si>
+    <t>В конце текста задаются вопросы, чтобы определить, какие роли в компании больше всего подходят сотруднику и какие действия он может предпринять для блага мира.</t>
+  </si>
+  <si>
+    <t>Как организована структура компании в тексте?</t>
+  </si>
+  <si>
+    <t>Чем отличается организационная структура этой компании от традиционных оргструктур?</t>
+  </si>
+  <si>
+    <t>Что такое "круги" в контексте компании, и как они помогают реализовывать предназначение?</t>
+  </si>
+  <si>
+    <t>Как организована иерархия в компании, если нет должностей и отделов?</t>
+  </si>
+  <si>
+    <t>Какие преимущества приносит использование круговых структур в компании?</t>
+  </si>
+  <si>
+    <t>Какие типы теншенов существуют в Смартократии, и какие функции они выполняют?</t>
+  </si>
+  <si>
+    <t>Каково значение теншенов для улучшения работы и процессов в компании?</t>
+  </si>
+  <si>
+    <t>Какие вопросы помогают определить, стоит ли выносить вопрос как теншен?</t>
+  </si>
+  <si>
+    <t>Может ли любой сотрудник создать свой собственный круг в компании, и как это сделать?</t>
+  </si>
+  <si>
+    <t>Кто решает, станет ли сотрудник лид-линком созданного им круга?</t>
+  </si>
+  <si>
+    <t>Какие шаги можно предпринять, чтобы включить новое обязательство для роли в компании?</t>
+  </si>
+  <si>
+    <t>Структура компании организована в виде кругов, а не в виде департаментов или отделов.</t>
+  </si>
+  <si>
+    <t>Основное отличие организационной структуры этой компании - отсутствие иерархии должностей и отделов, но наличие иерархии предназначений.</t>
+  </si>
+  <si>
+    <t>В компании "круги" - это объединения ролей, которые помогают им исполнять свое предназначение и взаимодействовать друг с другом.</t>
+  </si>
+  <si>
+    <t>Иерархия в компании определяется иерархией предназначений, где каждый вложенный круг помогает родительскому кругу реализовывать его предназначение.</t>
+  </si>
+  <si>
+    <t>Преимущества круговых структур включают быструю адаптацию к изменяющейся среде и задачам, отсутствие жесткой иерархии должностей и возможность максимально эффективно реализовывать предназначения.</t>
+  </si>
+  <si>
+    <t>Существуют разные типы теншенов в Смартократии, включая "Информирование", "Запрос информации", "Запрос действия", "Запрос проекта".</t>
+  </si>
+  <si>
+    <t>Теншены играют важную роль в улучшении работы и процессов, помогая решать вопросы, обеспечивая информационную прозрачность и контролируя выполнение задач.</t>
+  </si>
+  <si>
+    <t>Для определения, стоит ли выносить вопрос как теншен, следует учитывать, затрагивает ли он интересы более чем одного участника, не решается ли он дуально или длится продолжительное время, и требует ли разбора более 10 минут.</t>
+  </si>
+  <si>
+    <t>Любой сотрудник может создать свой круг, если видит зону ответственности, которая требует оформления в отдельную структуру, и соблюдает правила, регулируемые Политикой Якорного круга.</t>
+  </si>
+  <si>
+    <t>Решение о том, станет ли сотрудник лид-линком созданного им круга, принимается лид-линком родительского круга при участии команды.</t>
+  </si>
+  <si>
+    <t>Для включения нового обязательства для роли следует определить, входит ли оно в предназначение роли, и вынести теншен на законодательную встречу для решения командой.</t>
+  </si>
+  <si>
+    <t>Какие виды встреч существуют в компании, и какие из них ключевые для Смартократии?</t>
+  </si>
+  <si>
+    <t>Какие условия необходимы для участия в встречах компании?</t>
+  </si>
+  <si>
+    <t>В чем заключается ценность участия в различных встречах?</t>
+  </si>
+  <si>
+    <t>Какие ситуации могут потребовать обязательного участия сотрудника во встречах?</t>
+  </si>
+  <si>
+    <t>Какие форматы встреч используются в компании?</t>
+  </si>
+  <si>
+    <t>Что делать, если сотрудник хочет посетить встречу, но не может физически присутствовать?</t>
+  </si>
+  <si>
+    <t>Какие способы есть для сотрудника, который чувствует, что в текущей роли приносит мало пользы и хочет изменить ситуацию?</t>
+  </si>
+  <si>
+    <t>Какие шаги можно предпринять, если сотрудник хочет сменить свою роль или круг в компании?</t>
+  </si>
+  <si>
+    <t>Как регулируется создание нового круга и новой роли в компании?</t>
+  </si>
+  <si>
+    <t>В компании существуют разные виды встреч, включая тактические встречи круга и законодательные встречи круга. Ключевыми для Смартократии являются эти два вида встреч.</t>
+  </si>
+  <si>
+    <t>Участие во всех встречах компании открыто и не требует разрешения. Основные условия - наличие желания и эффективное участие.</t>
+  </si>
+  <si>
+    <t>Участие в встречах позволяет быть в курсе обсуждаемых вопросов, выразить свои запросы и мнения, а также следить за процессом принятия решений и разработки стратегии.</t>
+  </si>
+  <si>
+    <t>Обязательное участие может потребоваться, если есть вопросы, теншены или проекты, обращенные к сотруднику, или если команда просит его участвовать в определенных встречах из-за важности его мнения и статуса.</t>
+  </si>
+  <si>
+    <t>Основными форматами встреч в компании являются тактические встречи круга и законодательные встречи круга.</t>
+  </si>
+  <si>
+    <t>Если сотрудник не может физически присутствовать на встрече, он может просмотреть протокол или запись встречи, доступные в Digit.</t>
+  </si>
+  <si>
+    <t>Если сотрудник хочет приносить больше пользы и изменить свою роль или круг, он может заглянуть на "Биржу ролей", обратиться к лид-линку или лид-линку лид-линка, или придумать новый круг и новую роль.</t>
+  </si>
+  <si>
+    <t>Смена роли или круга может быть осуществлена через "Биржу ролей", обращение к лид-линкам или создание нового круга в соответствии с Политикой, принятой на Якорном круге.</t>
+  </si>
+  <si>
+    <t>Создание нового круга и новой роли в компании регулируется Политикой, принятой на Якорном круге, и требует определения соответствия этому действию предназначению компании.</t>
+  </si>
+  <si>
+    <t>Как можно оценить свой вклад в успех компании и понять, насколько он значим?</t>
+  </si>
+  <si>
+    <t>Какие методы и моменты подходят для оценки своего вклада?</t>
+  </si>
+  <si>
+    <t>Что представляет собой performance review и почему важно быть честным на нем?</t>
+  </si>
+  <si>
+    <t>Как работает новая прозрачная модель учета доходов и расходов для сотрудников?</t>
+  </si>
+  <si>
+    <t>Что такое профили и грейды в компании, и как они связаны с ценностями компании?</t>
+  </si>
+  <si>
+    <t>Какие уровни развития компетенций существуют в профилях и грейдах, и какие требования к ним?</t>
+  </si>
+  <si>
+    <t>Как можно попасть на шестую ступень развития компетенций?</t>
+  </si>
+  <si>
+    <t>Что значит "раскрасить карту" развития компетенций?</t>
+  </si>
+  <si>
+    <t>Необходимо ли всем стремиться к главной ступени, или есть возможность оставаться на других уровнях развития?</t>
+  </si>
+  <si>
+    <t>Свой вклад в успех компании можно оценить, обратившись к коллегам, лид-линку, клиентам или другим заинтересованным лицам. Также полезно проводить регулярные оценки на ретроспективах и обратную связь на performance review.</t>
+  </si>
+  <si>
+    <t>Для оценки вклада полезно следить за чатами, участвовать во встречах и изучать повестки, где обсуждаются успехи и заслуги сотрудников.</t>
+  </si>
+  <si>
+    <t>Performance review - это процесс оценки сотрудника, где важно быть честным и выразить свои сомнения, трудности или незамеченные заслуги. Это помогает устранить несправедливость и внести изменения.</t>
+  </si>
+  <si>
+    <t>Новая прозрачная модель учета доходов и расходов для сотрудников основана на ценности, которую команда и каждый сотрудник приносят клиентам. Размер вознаграждения зависит от экономической ситуации и стратегических фокусов команды.</t>
+  </si>
+  <si>
+    <t>Профили и грейды в компании связаны с ценностями и определяют уровни развития компетенций сотрудников. Они помогают сотрудникам понимать ожидания компании и план развития.</t>
+  </si>
+  <si>
+    <t>Уровни развития компетенций в профилях и грейдах включают младшего специалиста, специалиста, инженера, старшего инженера, ведущего инженера и главного инженера. Каждый уровень имеет свои требования к soft skills и hard skills.</t>
+  </si>
+  <si>
+    <t>Для попадания на шестую ступень развития сотрудник должен провести самооценку, сверить свои компетенции с профилем и запросить оценку от коллег или лид-линка. Затем можно разработать план развития.</t>
+  </si>
+  <si>
+    <t>"Раскрасить карту" развития компетенций означает оценить свои сильные и слабые стороны в соответствии с требованиями на каждой ступени развития и работать над улучшением.</t>
+  </si>
+  <si>
+    <t>Не все сотрудники должны стремиться к главной ступени, и это нормально. Важно находить роль и уровень развития, который соответствует интересам и способностям каждого сотрудника.</t>
+  </si>
+  <si>
+    <t>Для кого предназначен секретный раздел?</t>
+  </si>
+  <si>
+    <t>Что обещает компания Smart Consulting своим сотрудникам?</t>
+  </si>
+  <si>
+    <t>Что зависит на 99% от успеха сотрудников?</t>
+  </si>
+  <si>
+    <t>Что происходит через два года в компании Smart Consulting?</t>
+  </si>
+  <si>
+    <t>Какие должности могут достичь сотрудники через два года?</t>
+  </si>
+  <si>
+    <t>Что происходит, если уровень создаваемой ценности не меняется?</t>
+  </si>
+  <si>
+    <t>Какие советы предоставляют опытные коллеги?</t>
+  </si>
+  <si>
+    <t>Что такое Scaled Agile Framework (SAFe)?</t>
+  </si>
+  <si>
+    <t>Какие аналогии используются, чтобы объяснить SAFe?</t>
+  </si>
+  <si>
+    <t>Какой фреймворк помогает установить связь между Agile-командами?</t>
+  </si>
+  <si>
+    <t>Почему SAFe используется в компании с более чем 200 сотрудниками?</t>
+  </si>
+  <si>
+    <t>Каким образом в SAFe доставляется ценность клиенту?</t>
+  </si>
+  <si>
+    <t>Какие сходства между процессом доставки молока и цифровых продуктов в компании?</t>
+  </si>
+  <si>
+    <t>Каким образом доставляется ценность клиенту в SAFe?</t>
+  </si>
+  <si>
+    <t>Чем инкременты отличаются от полного продукта?</t>
+  </si>
+  <si>
+    <t>Секретный раздел предназначен только для разработчиков.</t>
+  </si>
+  <si>
+    <t>Компания Smart Consulting обещает помочь сотрудникам стать мидлами, сеньорами или даже CTO.</t>
+  </si>
+  <si>
+    <t>Успех на 99% зависит от желания сотрудника развиваться, творить, учиться и нести ответственность.</t>
+  </si>
+  <si>
+    <t>Через два года сотрудники либо продвигаются по должностям, либо освобождают место для новых талантов.</t>
+  </si>
+  <si>
+    <t>Сотрудники могут достичь позиций мидла, сеньора, принципала или CTO.</t>
+  </si>
+  <si>
+    <t>Если уровень создаваемой ценности не меняется в течение двух лет, это может быть поводом освободить место.</t>
+  </si>
+  <si>
+    <t>Самый популярный совет в компании - спросить более опытных коллег о составлении карты развития.</t>
+  </si>
+  <si>
+    <t>SAFe - это Scaled Agile Framework.</t>
+  </si>
+  <si>
+    <t>SAFe объясняется аналогией с доставкой молока - поэтапно и порционно.</t>
+  </si>
+  <si>
+    <t>SAFe помогает установить связь между Agile-командами.</t>
+  </si>
+  <si>
+    <t>SAFe используется в компании с более чем 200 сотрудниками для обеспечения грамотной коммуникации.</t>
+  </si>
+  <si>
+    <t>В SAFe ценность доставляется поэтапно - инкрементами.</t>
+  </si>
+  <si>
+    <t>SAFe подразумевает доставку ценности клиенту поэтапно, как молоко в отдельных пакетах.</t>
+  </si>
+  <si>
+    <t>В SAFe ценность доставляется поэтапно - заказчик использует отдельный функционал, пока продукт не завершен.</t>
+  </si>
+  <si>
+    <t>Инкременты - это небольшие работающие порции продукта, в отличие от полного продукта.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2042,6 +3204,25 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2114,7 +3295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2178,31 +3359,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2250,6 +3420,26 @@
         </top>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -2264,11 +3454,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3DFC0D48-8FDC-4E0F-86E7-0614DB255086}" name="Таблица1" displayName="Таблица1" ref="A1:B329" totalsRowShown="0" dataDxfId="0" tableBorderDxfId="3">
-  <autoFilter ref="A1:B329" xr:uid="{3DFC0D48-8FDC-4E0F-86E7-0614DB255086}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3DFC0D48-8FDC-4E0F-86E7-0614DB255086}" name="Таблица1" displayName="Таблица1" ref="A1:B521" totalsRowShown="0" dataDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="A1:B521" xr:uid="{3DFC0D48-8FDC-4E0F-86E7-0614DB255086}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1B1817E3-8E32-4B49-BC60-107B3609A301}" name="QUESTION" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{3335E72F-0F09-4B1B-9E9B-0C4DB3F658DA}" name="ANSWER" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{1B1817E3-8E32-4B49-BC60-107B3609A301}" name="QUESTION" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{3335E72F-0F09-4B1B-9E9B-0C4DB3F658DA}" name="ANSWER" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2563,8 +3753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3750"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A387" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A396" sqref="A396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2839,7 +4029,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A34" s="19" t="s">
         <v>49</v>
       </c>
@@ -2999,7 +4189,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A54" s="19" t="s">
         <v>101</v>
       </c>
@@ -3055,7 +4245,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A61" s="19" t="s">
         <v>101</v>
       </c>
@@ -3559,7 +4749,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A124" s="19" t="s">
         <v>223</v>
       </c>
@@ -3599,7 +4789,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A129" s="19" t="s">
         <v>240</v>
       </c>
@@ -3623,7 +4813,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="19" t="s">
         <v>243</v>
       </c>
@@ -3695,7 +4885,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A141" s="19" t="s">
         <v>264</v>
       </c>
@@ -4319,7 +5509,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A219" s="19" t="s">
         <v>417</v>
       </c>
@@ -5207,773 +6397,1541 @@
         <v>642</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A330" s="2"/>
-      <c r="B330" s="2"/>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A331" s="2"/>
-      <c r="B331" s="2"/>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A332" s="2"/>
-      <c r="B332" s="2"/>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A333" s="2"/>
-      <c r="B333" s="2"/>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A334" s="2"/>
-      <c r="B334" s="2"/>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A335" s="2"/>
-      <c r="B335" s="2"/>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A336" s="2"/>
-      <c r="B336" s="2"/>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A337" s="2"/>
-      <c r="B337" s="2"/>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A338" s="2"/>
-      <c r="B338" s="2"/>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A339" s="2"/>
-      <c r="B339" s="2"/>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A340" s="2"/>
-      <c r="B340" s="2"/>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A341" s="2"/>
-      <c r="B341" s="2"/>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A342" s="2"/>
-      <c r="B342" s="2"/>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A343" s="2"/>
-      <c r="B343" s="2"/>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A344" s="2"/>
-      <c r="B344" s="2"/>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A345" s="2"/>
-      <c r="B345" s="2"/>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A346" s="2"/>
-      <c r="B346" s="2"/>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A347" s="2"/>
-      <c r="B347" s="2"/>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A348" s="2"/>
-      <c r="B348" s="2"/>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A349" s="2"/>
-      <c r="B349" s="2"/>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A350" s="2"/>
-      <c r="B350" s="2"/>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A351" s="2"/>
-      <c r="B351" s="2"/>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A352" s="2"/>
-      <c r="B352" s="2"/>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A353" s="2"/>
-      <c r="B353" s="2"/>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A354" s="2"/>
-      <c r="B354" s="2"/>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A355" s="2"/>
-      <c r="B355" s="2"/>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A356" s="2"/>
-      <c r="B356" s="2"/>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A357" s="2"/>
-      <c r="B357" s="2"/>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A358" s="2"/>
-      <c r="B358" s="2"/>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A359" s="2"/>
-      <c r="B359" s="2"/>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A360" s="2"/>
-      <c r="B360" s="2"/>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A361" s="2"/>
-      <c r="B361" s="2"/>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A362" s="2"/>
-      <c r="B362" s="2"/>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A363" s="2"/>
-      <c r="B363" s="2"/>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A364" s="2"/>
-      <c r="B364" s="2"/>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A365" s="2"/>
-      <c r="B365" s="2"/>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A366" s="2"/>
-      <c r="B366" s="2"/>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A367" s="2"/>
-      <c r="B367" s="2"/>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A368" s="2"/>
-      <c r="B368" s="2"/>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A369" s="2"/>
-      <c r="B369" s="2"/>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A370" s="2"/>
-      <c r="B370" s="2"/>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A371" s="2"/>
-      <c r="B371" s="2"/>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A372" s="2"/>
-      <c r="B372" s="2"/>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A373" s="2"/>
-      <c r="B373" s="2"/>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A374" s="2"/>
-      <c r="B374" s="2"/>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A375" s="2"/>
-      <c r="B375" s="2"/>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A376" s="2"/>
-      <c r="B376" s="2"/>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A377" s="2"/>
-      <c r="B377" s="2"/>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A378" s="2"/>
-      <c r="B378" s="2"/>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A379" s="2"/>
-      <c r="B379" s="2"/>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A380" s="2"/>
-      <c r="B380" s="2"/>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A381" s="2"/>
-      <c r="B381" s="2"/>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A382" s="2"/>
-      <c r="B382" s="2"/>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A383" s="2"/>
-      <c r="B383" s="2"/>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A384" s="2"/>
-      <c r="B384" s="2"/>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A385" s="2"/>
-      <c r="B385" s="2"/>
+    <row r="330" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A330" s="19" t="s">
+        <v>643</v>
+      </c>
+      <c r="B330" s="23" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A331" s="19" t="s">
+        <v>644</v>
+      </c>
+      <c r="B331" s="23" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A332" s="19" t="s">
+        <v>645</v>
+      </c>
+      <c r="B332" s="23" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A333" s="19" t="s">
+        <v>646</v>
+      </c>
+      <c r="B333" s="23" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A334" s="19" t="s">
+        <v>647</v>
+      </c>
+      <c r="B334" s="23" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A335" s="19" t="s">
+        <v>648</v>
+      </c>
+      <c r="B335" s="23" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A336" s="19" t="s">
+        <v>649</v>
+      </c>
+      <c r="B336" s="23" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A337" s="19" t="s">
+        <v>650</v>
+      </c>
+      <c r="B337" s="23" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A338" s="19" t="s">
+        <v>651</v>
+      </c>
+      <c r="B338" s="23" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A339" s="19" t="s">
+        <v>652</v>
+      </c>
+      <c r="B339" s="23" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A340" s="19" t="s">
+        <v>653</v>
+      </c>
+      <c r="B340" s="23" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A341" s="19" t="s">
+        <v>654</v>
+      </c>
+      <c r="B341" s="23" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A342" s="19" t="s">
+        <v>655</v>
+      </c>
+      <c r="B342" s="23" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A343" s="19" t="s">
+        <v>656</v>
+      </c>
+      <c r="B343" s="23" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A344" s="19" t="s">
+        <v>657</v>
+      </c>
+      <c r="B344" s="23" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A345" s="19" t="s">
+        <v>658</v>
+      </c>
+      <c r="B345" s="23" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A346" s="19" t="s">
+        <v>659</v>
+      </c>
+      <c r="B346" s="23" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A347" s="19" t="s">
+        <v>660</v>
+      </c>
+      <c r="B347" s="23" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A348" s="19" t="s">
+        <v>661</v>
+      </c>
+      <c r="B348" s="23" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A349" s="19" t="s">
+        <v>662</v>
+      </c>
+      <c r="B349" s="23" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A350" s="19" t="s">
+        <v>683</v>
+      </c>
+      <c r="B350" s="23" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A351" s="19" t="s">
+        <v>684</v>
+      </c>
+      <c r="B351" s="23" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A352" s="19" t="s">
+        <v>685</v>
+      </c>
+      <c r="B352" s="23" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A353" s="19" t="s">
+        <v>686</v>
+      </c>
+      <c r="B353" s="23" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A354" s="19" t="s">
+        <v>687</v>
+      </c>
+      <c r="B354" s="23" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A355" s="19" t="s">
+        <v>688</v>
+      </c>
+      <c r="B355" s="23" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A356" s="19" t="s">
+        <v>689</v>
+      </c>
+      <c r="B356" s="23" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A357" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="B357" s="23" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A358" s="19" t="s">
+        <v>690</v>
+      </c>
+      <c r="B358" s="23" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A359" s="19" t="s">
+        <v>700</v>
+      </c>
+      <c r="B359" s="23" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A360" s="19" t="s">
+        <v>701</v>
+      </c>
+      <c r="B360" s="23" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A361" s="19" t="s">
+        <v>702</v>
+      </c>
+      <c r="B361" s="23" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A362" s="19" t="s">
+        <v>703</v>
+      </c>
+      <c r="B362" s="23" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A363" s="19" t="s">
+        <v>704</v>
+      </c>
+      <c r="B363" s="23" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A364" s="19" t="s">
+        <v>705</v>
+      </c>
+      <c r="B364" s="23" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A365" s="19" t="s">
+        <v>706</v>
+      </c>
+      <c r="B365" s="23" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A366" s="19" t="s">
+        <v>707</v>
+      </c>
+      <c r="B366" s="23" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A367" s="19" t="s">
+        <v>708</v>
+      </c>
+      <c r="B367" s="23" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A368" s="19" t="s">
+        <v>709</v>
+      </c>
+      <c r="B368" s="23" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A369" s="19" t="s">
+        <v>710</v>
+      </c>
+      <c r="B369" s="23" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A370" s="19" t="s">
+        <v>711</v>
+      </c>
+      <c r="B370" s="23" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A371" s="19" t="s">
+        <v>712</v>
+      </c>
+      <c r="B371" s="23" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A372" s="19" t="s">
+        <v>713</v>
+      </c>
+      <c r="B372" s="23" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A373" s="19" t="s">
+        <v>729</v>
+      </c>
+      <c r="B373" s="23" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A374" s="19" t="s">
+        <v>730</v>
+      </c>
+      <c r="B374" s="23" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A375" s="19" t="s">
+        <v>731</v>
+      </c>
+      <c r="B375" s="23" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A376" s="19" t="s">
+        <v>732</v>
+      </c>
+      <c r="B376" s="23" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A377" s="19" t="s">
+        <v>733</v>
+      </c>
+      <c r="B377" s="23" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A378" s="19" t="s">
+        <v>734</v>
+      </c>
+      <c r="B378" s="23" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A379" s="19" t="s">
+        <v>735</v>
+      </c>
+      <c r="B379" s="23" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A380" s="19" t="s">
+        <v>728</v>
+      </c>
+      <c r="B380" s="23" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A381" s="19" t="s">
+        <v>736</v>
+      </c>
+      <c r="B381" s="23" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A382" s="19" t="s">
+        <v>737</v>
+      </c>
+      <c r="B382" s="23" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A383" s="19" t="s">
+        <v>738</v>
+      </c>
+      <c r="B383" s="23" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A384" s="19" t="s">
+        <v>739</v>
+      </c>
+      <c r="B384" s="23" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A385" s="19" t="s">
+        <v>740</v>
+      </c>
+      <c r="B385" s="23" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A386" s="2"/>
-      <c r="B386" s="2"/>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A387" s="2"/>
-      <c r="B387" s="2"/>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A388" s="2"/>
-      <c r="B388" s="2"/>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A389" s="2"/>
-      <c r="B389" s="2"/>
+      <c r="A386" s="19" t="s">
+        <v>754</v>
+      </c>
+      <c r="B386" s="19" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A387" s="19" t="s">
+        <v>756</v>
+      </c>
+      <c r="B387" s="19" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A388" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="B388" s="19" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A389" s="19" t="s">
+        <v>760</v>
+      </c>
+      <c r="B389" s="19" t="s">
+        <v>759</v>
+      </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A390" s="2"/>
-      <c r="B390" s="2"/>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A391" s="2"/>
-      <c r="B391" s="2"/>
+      <c r="A390" s="19" t="s">
+        <v>761</v>
+      </c>
+      <c r="B390" s="19" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A391" s="19" t="s">
+        <v>763</v>
+      </c>
+      <c r="B391" s="19" t="s">
+        <v>764</v>
+      </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A392" s="2"/>
-      <c r="B392" s="2"/>
+      <c r="A392" s="19" t="s">
+        <v>765</v>
+      </c>
+      <c r="B392" s="24" t="s">
+        <v>773</v>
+      </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A393" s="2"/>
-      <c r="B393" s="2"/>
+      <c r="A393" s="19" t="s">
+        <v>766</v>
+      </c>
+      <c r="B393" s="24" t="s">
+        <v>774</v>
+      </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A394" s="2"/>
-      <c r="B394" s="2"/>
+      <c r="A394" s="19" t="s">
+        <v>767</v>
+      </c>
+      <c r="B394" s="24" t="s">
+        <v>775</v>
+      </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A395" s="2"/>
-      <c r="B395" s="2"/>
+      <c r="A395" s="19" t="s">
+        <v>768</v>
+      </c>
+      <c r="B395" s="24" t="s">
+        <v>776</v>
+      </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A396" s="2"/>
-      <c r="B396" s="2"/>
+      <c r="A396" s="19" t="s">
+        <v>417</v>
+      </c>
+      <c r="B396" s="24" t="s">
+        <v>777</v>
+      </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A397" s="2"/>
-      <c r="B397" s="2"/>
+      <c r="A397" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="B397" s="24" t="s">
+        <v>778</v>
+      </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A398" s="2"/>
-      <c r="B398" s="2"/>
+      <c r="A398" s="19" t="s">
+        <v>769</v>
+      </c>
+      <c r="B398" s="24" t="s">
+        <v>779</v>
+      </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A399" s="2"/>
-      <c r="B399" s="2"/>
+      <c r="A399" s="19" t="s">
+        <v>770</v>
+      </c>
+      <c r="B399" s="24" t="s">
+        <v>780</v>
+      </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A400" s="2"/>
-      <c r="B400" s="2"/>
+      <c r="A400" s="19" t="s">
+        <v>771</v>
+      </c>
+      <c r="B400" s="24" t="s">
+        <v>781</v>
+      </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A401" s="2"/>
-      <c r="B401" s="2"/>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A402" s="2"/>
-      <c r="B402" s="2"/>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A403" s="2"/>
-      <c r="B403" s="2"/>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A404" s="2"/>
-      <c r="B404" s="2"/>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A405" s="2"/>
-      <c r="B405" s="2"/>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A406" s="2"/>
-      <c r="B406" s="2"/>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A407" s="2"/>
-      <c r="B407" s="2"/>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A408" s="2"/>
-      <c r="B408" s="2"/>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A409" s="2"/>
-      <c r="B409" s="2"/>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A410" s="2"/>
-      <c r="B410" s="2"/>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A411" s="2"/>
-      <c r="B411" s="2"/>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A412" s="2"/>
-      <c r="B412" s="2"/>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A413" s="2"/>
-      <c r="B413" s="2"/>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A414" s="2"/>
-      <c r="B414" s="2"/>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A415" s="2"/>
-      <c r="B415" s="2"/>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A416" s="2"/>
-      <c r="B416" s="2"/>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A417" s="2"/>
-      <c r="B417" s="2"/>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A418" s="2"/>
-      <c r="B418" s="2"/>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A419" s="2"/>
-      <c r="B419" s="2"/>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A420" s="2"/>
-      <c r="B420" s="2"/>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A421" s="2"/>
-      <c r="B421" s="2"/>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A422" s="2"/>
-      <c r="B422" s="2"/>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A423" s="2"/>
-      <c r="B423" s="2"/>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A424" s="2"/>
-      <c r="B424" s="2"/>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A425" s="2"/>
-      <c r="B425" s="2"/>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A426" s="2"/>
-      <c r="B426" s="2"/>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A427" s="2"/>
-      <c r="B427" s="2"/>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A428" s="2"/>
-      <c r="B428" s="2"/>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A429" s="2"/>
-      <c r="B429" s="2"/>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A430" s="2"/>
-      <c r="B430" s="2"/>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A431" s="2"/>
-      <c r="B431" s="2"/>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A432" s="2"/>
-      <c r="B432" s="2"/>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A433" s="2"/>
-      <c r="B433" s="2"/>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A434" s="2"/>
-      <c r="B434" s="2"/>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A435" s="2"/>
-      <c r="B435" s="2"/>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A436" s="2"/>
-      <c r="B436" s="2"/>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A437" s="2"/>
-      <c r="B437" s="2"/>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A438" s="2"/>
-      <c r="B438" s="2"/>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A439" s="2"/>
-      <c r="B439" s="2"/>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A440" s="2"/>
-      <c r="B440" s="2"/>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A441" s="2"/>
-      <c r="B441" s="2"/>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A442" s="2"/>
-      <c r="B442" s="2"/>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A443" s="2"/>
-      <c r="B443" s="2"/>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A444" s="2"/>
-      <c r="B444" s="2"/>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A445" s="2"/>
-      <c r="B445" s="2"/>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A446" s="2"/>
-      <c r="B446" s="2"/>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A447" s="2"/>
-      <c r="B447" s="2"/>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A448" s="2"/>
-      <c r="B448" s="2"/>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A449" s="2"/>
-      <c r="B449" s="2"/>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A450" s="2"/>
-      <c r="B450" s="2"/>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A451" s="2"/>
-      <c r="B451" s="2"/>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A452" s="2"/>
-      <c r="B452" s="2"/>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A453" s="2"/>
-      <c r="B453" s="2"/>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A454" s="2"/>
-      <c r="B454" s="2"/>
-    </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A455" s="2"/>
-      <c r="B455" s="2"/>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A456" s="2"/>
-      <c r="B456" s="2"/>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A457" s="2"/>
-      <c r="B457" s="2"/>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A458" s="2"/>
-      <c r="B458" s="2"/>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A459" s="2"/>
-      <c r="B459" s="2"/>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A460" s="2"/>
-      <c r="B460" s="2"/>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A461" s="2"/>
-      <c r="B461" s="2"/>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A462" s="2"/>
-      <c r="B462" s="2"/>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A463" s="2"/>
-      <c r="B463" s="2"/>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A464" s="2"/>
-      <c r="B464" s="2"/>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A465" s="2"/>
-      <c r="B465" s="2"/>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A466" s="2"/>
-      <c r="B466" s="2"/>
-    </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A467" s="2"/>
-      <c r="B467" s="2"/>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A468" s="2"/>
-      <c r="B468" s="2"/>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A469" s="2"/>
-      <c r="B469" s="2"/>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A470" s="2"/>
-      <c r="B470" s="2"/>
-    </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A471" s="2"/>
-      <c r="B471" s="2"/>
-    </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A472" s="2"/>
-      <c r="B472" s="2"/>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A473" s="2"/>
-      <c r="B473" s="2"/>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A474" s="2"/>
-      <c r="B474" s="2"/>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A475" s="2"/>
-      <c r="B475" s="2"/>
-    </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A476" s="2"/>
-      <c r="B476" s="2"/>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A477" s="2"/>
-      <c r="B477" s="2"/>
-    </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A478" s="2"/>
-      <c r="B478" s="2"/>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A479" s="2"/>
-      <c r="B479" s="2"/>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A480" s="2"/>
-      <c r="B480" s="2"/>
-    </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A481" s="2"/>
-      <c r="B481" s="2"/>
-    </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A482" s="2"/>
-      <c r="B482" s="2"/>
-    </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A483" s="2"/>
-      <c r="B483" s="2"/>
-    </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A484" s="2"/>
-      <c r="B484" s="2"/>
-    </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A485" s="2"/>
-      <c r="B485" s="2"/>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A486" s="2"/>
-      <c r="B486" s="2"/>
-    </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A487" s="2"/>
-      <c r="B487" s="2"/>
-    </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A488" s="2"/>
-      <c r="B488" s="2"/>
-    </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A489" s="2"/>
-      <c r="B489" s="2"/>
-    </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A490" s="2"/>
-      <c r="B490" s="2"/>
-    </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A491" s="2"/>
-      <c r="B491" s="2"/>
-    </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A492" s="2"/>
-      <c r="B492" s="2"/>
-    </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A493" s="2"/>
-      <c r="B493" s="2"/>
-    </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A494" s="2"/>
-      <c r="B494" s="2"/>
-    </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A495" s="2"/>
-      <c r="B495" s="2"/>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A496" s="2"/>
-      <c r="B496" s="2"/>
-    </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A497" s="2"/>
-      <c r="B497" s="2"/>
-    </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A498" s="2"/>
-      <c r="B498" s="2"/>
-    </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A499" s="2"/>
-      <c r="B499" s="2"/>
-    </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A500" s="2"/>
-      <c r="B500" s="2"/>
-    </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A501" s="2"/>
-      <c r="B501" s="2"/>
-    </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A502" s="2"/>
-      <c r="B502" s="2"/>
-    </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A503" s="2"/>
-      <c r="B503" s="2"/>
-    </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A504" s="2"/>
-      <c r="B504" s="2"/>
-    </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A505" s="2"/>
-      <c r="B505" s="2"/>
-    </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A506" s="2"/>
-      <c r="B506" s="2"/>
+      <c r="A401" s="19" t="s">
+        <v>772</v>
+      </c>
+      <c r="B401" s="24" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A402" s="19" t="s">
+        <v>783</v>
+      </c>
+      <c r="B402" s="23" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A403" s="19" t="s">
+        <v>784</v>
+      </c>
+      <c r="B403" s="23" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A404" s="19" t="s">
+        <v>785</v>
+      </c>
+      <c r="B404" s="23" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A405" s="19" t="s">
+        <v>786</v>
+      </c>
+      <c r="B405" s="23" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A406" s="19" t="s">
+        <v>787</v>
+      </c>
+      <c r="B406" s="23" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A407" s="19" t="s">
+        <v>788</v>
+      </c>
+      <c r="B407" s="23" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A408" s="19" t="s">
+        <v>789</v>
+      </c>
+      <c r="B408" s="23" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A409" s="19" t="s">
+        <v>790</v>
+      </c>
+      <c r="B409" s="23" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A410" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="B410" s="23" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A411" s="19" t="s">
+        <v>792</v>
+      </c>
+      <c r="B411" s="23" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A412" s="19" t="s">
+        <v>793</v>
+      </c>
+      <c r="B412" s="23" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A413" s="19" t="s">
+        <v>794</v>
+      </c>
+      <c r="B413" s="23" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A414" s="19" t="s">
+        <v>795</v>
+      </c>
+      <c r="B414" s="23" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A415" s="19" t="s">
+        <v>796</v>
+      </c>
+      <c r="B415" s="23" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A416" s="19" t="s">
+        <v>797</v>
+      </c>
+      <c r="B416" s="23" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A417" s="19" t="s">
+        <v>798</v>
+      </c>
+      <c r="B417" s="23" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A418" s="19" t="s">
+        <v>799</v>
+      </c>
+      <c r="B418" s="23" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A419" s="19" t="s">
+        <v>800</v>
+      </c>
+      <c r="B419" s="23" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A420" s="19" t="s">
+        <v>801</v>
+      </c>
+      <c r="B420" s="23" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A421" s="19" t="s">
+        <v>802</v>
+      </c>
+      <c r="B421" s="23" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A422" s="19" t="s">
+        <v>823</v>
+      </c>
+      <c r="B422" s="23" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A423" s="19" t="s">
+        <v>824</v>
+      </c>
+      <c r="B423" s="23" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A424" s="19" t="s">
+        <v>825</v>
+      </c>
+      <c r="B424" s="23" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A425" s="19" t="s">
+        <v>826</v>
+      </c>
+      <c r="B425" s="23" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A426" s="19" t="s">
+        <v>827</v>
+      </c>
+      <c r="B426" s="23" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A427" s="19" t="s">
+        <v>828</v>
+      </c>
+      <c r="B427" s="23" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A428" s="19" t="s">
+        <v>829</v>
+      </c>
+      <c r="B428" s="23" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A429" s="19" t="s">
+        <v>837</v>
+      </c>
+      <c r="B429" s="23" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A430" s="19" t="s">
+        <v>838</v>
+      </c>
+      <c r="B430" s="23" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A431" s="19" t="s">
+        <v>839</v>
+      </c>
+      <c r="B431" s="23" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A432" s="19" t="s">
+        <v>840</v>
+      </c>
+      <c r="B432" s="23" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A433" s="19" t="s">
+        <v>841</v>
+      </c>
+      <c r="B433" s="23" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A434" s="19" t="s">
+        <v>842</v>
+      </c>
+      <c r="B434" s="23" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A435" s="19" t="s">
+        <v>843</v>
+      </c>
+      <c r="B435" s="23" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A436" s="19" t="s">
+        <v>844</v>
+      </c>
+      <c r="B436" s="23" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A437" s="19" t="s">
+        <v>845</v>
+      </c>
+      <c r="B437" s="23" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A438" s="19" t="s">
+        <v>855</v>
+      </c>
+      <c r="B438" s="23" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A439" s="19" t="s">
+        <v>856</v>
+      </c>
+      <c r="B439" s="23" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A440" s="19" t="s">
+        <v>857</v>
+      </c>
+      <c r="B440" s="23" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A441" s="19" t="s">
+        <v>858</v>
+      </c>
+      <c r="B441" s="23" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A442" s="19" t="s">
+        <v>859</v>
+      </c>
+      <c r="B442" s="23" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A443" s="19" t="s">
+        <v>860</v>
+      </c>
+      <c r="B443" s="23" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A444" s="19" t="s">
+        <v>861</v>
+      </c>
+      <c r="B444" s="23" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A445" s="19" t="s">
+        <v>869</v>
+      </c>
+      <c r="B445" s="19" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A446" s="19" t="s">
+        <v>870</v>
+      </c>
+      <c r="B446" s="19" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A447" s="19" t="s">
+        <v>871</v>
+      </c>
+      <c r="B447" s="19" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A448" s="19" t="s">
+        <v>872</v>
+      </c>
+      <c r="B448" s="23" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A449" s="19" t="s">
+        <v>873</v>
+      </c>
+      <c r="B449" s="23" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A450" s="19" t="s">
+        <v>874</v>
+      </c>
+      <c r="B450" s="23" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A451" s="19" t="s">
+        <v>881</v>
+      </c>
+      <c r="B451" s="23" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A452" s="19" t="s">
+        <v>882</v>
+      </c>
+      <c r="B452" s="23" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A453" s="19" t="s">
+        <v>883</v>
+      </c>
+      <c r="B453" s="23" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A454" s="19" t="s">
+        <v>884</v>
+      </c>
+      <c r="B454" s="23" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A455" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="B455" s="23" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A456" s="19" t="s">
+        <v>886</v>
+      </c>
+      <c r="B456" s="23" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A457" s="19" t="s">
+        <v>887</v>
+      </c>
+      <c r="B457" s="23" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A458" s="19" t="s">
+        <v>888</v>
+      </c>
+      <c r="B458" s="23" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A459" s="19" t="s">
+        <v>889</v>
+      </c>
+      <c r="B459" s="23" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A460" s="19" t="s">
+        <v>890</v>
+      </c>
+      <c r="B460" s="23" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A461" s="19" t="s">
+        <v>891</v>
+      </c>
+      <c r="B461" s="23" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A462" s="19" t="s">
+        <v>892</v>
+      </c>
+      <c r="B462" s="23" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A463" s="19" t="s">
+        <v>893</v>
+      </c>
+      <c r="B463" s="23" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A464" s="19" t="s">
+        <v>894</v>
+      </c>
+      <c r="B464" s="23" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A465" s="19" t="s">
+        <v>909</v>
+      </c>
+      <c r="B465" s="23" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A466" s="19" t="s">
+        <v>910</v>
+      </c>
+      <c r="B466" s="23" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A467" s="19" t="s">
+        <v>911</v>
+      </c>
+      <c r="B467" s="23" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A468" s="19" t="s">
+        <v>912</v>
+      </c>
+      <c r="B468" s="23" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A469" s="19" t="s">
+        <v>913</v>
+      </c>
+      <c r="B469" s="23" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A470" s="19" t="s">
+        <v>914</v>
+      </c>
+      <c r="B470" s="23" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A471" s="19" t="s">
+        <v>915</v>
+      </c>
+      <c r="B471" s="23" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A472" s="19" t="s">
+        <v>916</v>
+      </c>
+      <c r="B472" s="23" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A473" s="19" t="s">
+        <v>917</v>
+      </c>
+      <c r="B473" s="23" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A474" s="19" t="s">
+        <v>918</v>
+      </c>
+      <c r="B474" s="23" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A475" s="19" t="s">
+        <v>919</v>
+      </c>
+      <c r="B475" s="23" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A476" s="19" t="s">
+        <v>920</v>
+      </c>
+      <c r="B476" s="23" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A477" s="19" t="s">
+        <v>921</v>
+      </c>
+      <c r="B477" s="23" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A478" s="19" t="s">
+        <v>935</v>
+      </c>
+      <c r="B478" s="23" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A479" s="19" t="s">
+        <v>936</v>
+      </c>
+      <c r="B479" s="23" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A480" s="19" t="s">
+        <v>937</v>
+      </c>
+      <c r="B480" s="23" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A481" s="19" t="s">
+        <v>938</v>
+      </c>
+      <c r="B481" s="23" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A482" s="19" t="s">
+        <v>939</v>
+      </c>
+      <c r="B482" s="23" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A483" s="19" t="s">
+        <v>940</v>
+      </c>
+      <c r="B483" s="23" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A484" s="19" t="s">
+        <v>941</v>
+      </c>
+      <c r="B484" s="23" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A485" s="19" t="s">
+        <v>942</v>
+      </c>
+      <c r="B485" s="23" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A486" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="B486" s="23" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A487" s="19" t="s">
+        <v>944</v>
+      </c>
+      <c r="B487" s="23" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A488" s="19" t="s">
+        <v>945</v>
+      </c>
+      <c r="B488" s="23" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A489" s="19" t="s">
+        <v>957</v>
+      </c>
+      <c r="B489" s="23" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A490" s="19" t="s">
+        <v>958</v>
+      </c>
+      <c r="B490" s="23" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A491" s="19" t="s">
+        <v>959</v>
+      </c>
+      <c r="B491" s="23" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A492" s="19" t="s">
+        <v>960</v>
+      </c>
+      <c r="B492" s="23" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A493" s="19" t="s">
+        <v>961</v>
+      </c>
+      <c r="B493" s="23" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A494" s="19" t="s">
+        <v>962</v>
+      </c>
+      <c r="B494" s="23" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A495" s="19" t="s">
+        <v>963</v>
+      </c>
+      <c r="B495" s="23" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A496" s="19" t="s">
+        <v>964</v>
+      </c>
+      <c r="B496" s="23" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A497" s="19" t="s">
+        <v>965</v>
+      </c>
+      <c r="B497" s="23" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A498" s="19" t="s">
+        <v>975</v>
+      </c>
+      <c r="B498" s="23" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A499" s="19" t="s">
+        <v>976</v>
+      </c>
+      <c r="B499" s="23" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A500" s="19" t="s">
+        <v>977</v>
+      </c>
+      <c r="B500" s="23" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A501" s="19" t="s">
+        <v>978</v>
+      </c>
+      <c r="B501" s="23" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A502" s="19" t="s">
+        <v>979</v>
+      </c>
+      <c r="B502" s="23" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A503" s="19" t="s">
+        <v>980</v>
+      </c>
+      <c r="B503" s="23" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A504" s="19" t="s">
+        <v>981</v>
+      </c>
+      <c r="B504" s="23" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A505" s="19" t="s">
+        <v>982</v>
+      </c>
+      <c r="B505" s="23" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A506" s="19" t="s">
+        <v>983</v>
+      </c>
+      <c r="B506" s="23" t="s">
+        <v>992</v>
+      </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A507" s="2"/>
-      <c r="B507" s="2"/>
+      <c r="A507" s="19" t="s">
+        <v>993</v>
+      </c>
+      <c r="B507" s="25" t="s">
+        <v>1008</v>
+      </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A508" s="2"/>
-      <c r="B508" s="2"/>
+      <c r="A508" s="19" t="s">
+        <v>994</v>
+      </c>
+      <c r="B508" s="25" t="s">
+        <v>1009</v>
+      </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A509" s="2"/>
-      <c r="B509" s="2"/>
+      <c r="A509" s="19" t="s">
+        <v>995</v>
+      </c>
+      <c r="B509" s="25" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A510" s="2"/>
-      <c r="B510" s="2"/>
+      <c r="A510" s="19" t="s">
+        <v>996</v>
+      </c>
+      <c r="B510" s="25" t="s">
+        <v>1011</v>
+      </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A511" s="2"/>
-      <c r="B511" s="2"/>
+      <c r="A511" s="19" t="s">
+        <v>997</v>
+      </c>
+      <c r="B511" s="25" t="s">
+        <v>1012</v>
+      </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A512" s="2"/>
-      <c r="B512" s="2"/>
+      <c r="A512" s="19" t="s">
+        <v>998</v>
+      </c>
+      <c r="B512" s="25" t="s">
+        <v>1013</v>
+      </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A513" s="2"/>
-      <c r="B513" s="2"/>
+      <c r="A513" s="19" t="s">
+        <v>999</v>
+      </c>
+      <c r="B513" s="25" t="s">
+        <v>1014</v>
+      </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A514" s="2"/>
-      <c r="B514" s="2"/>
+      <c r="A514" s="19" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B514" s="25" t="s">
+        <v>1015</v>
+      </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A515" s="2"/>
-      <c r="B515" s="2"/>
+      <c r="A515" s="19" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B515" s="25" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A516" s="2"/>
-      <c r="B516" s="2"/>
+      <c r="A516" s="19" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B516" s="25" t="s">
+        <v>1017</v>
+      </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A517" s="2"/>
-      <c r="B517" s="2"/>
+      <c r="A517" s="19" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B517" s="25" t="s">
+        <v>1018</v>
+      </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A518" s="2"/>
-      <c r="B518" s="2"/>
+      <c r="A518" s="19" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B518" s="25" t="s">
+        <v>1019</v>
+      </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A519" s="2"/>
-      <c r="B519" s="2"/>
+      <c r="A519" s="19" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B519" s="25" t="s">
+        <v>1020</v>
+      </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A520" s="2"/>
-      <c r="B520" s="2"/>
+      <c r="A520" s="19" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B520" s="25" t="s">
+        <v>1021</v>
+      </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A521" s="2"/>
-      <c r="B521" s="2"/>
+      <c r="A521" s="19" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B521" s="25" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522" s="2"/>
